--- a/QRPH/CCG/StructureDefinition-ccg-deployment.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-deployment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4768,7 +4768,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>252</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>297</v>
       </c>
@@ -13284,12 +13284,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN101">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
